--- a/Resources/data dictionary and logistic regression models 1-4.xlsx
+++ b/Resources/data dictionary and logistic regression models 1-4.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communsol-my.sharepoint.com/personal/judith_calvo_communitysolutions_org/Documents/_aUCB Data Analytics Bootcamp Class/Final Project Folder/ML/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judyc\OneDrive - Community Solutions\_aUCB Data Analytics Bootcamp Class\Final Project Folder\ML\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{0DCDD074-E7F4-4FD7-9CAA-F1F8F64E794E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B92934E6-5CA0-40D0-833B-A98EB0A2B63C}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="6_{772ED575-E593-42CD-8A95-B28CDFD7BE37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{13AF6873-36AC-40C1-8566-1E31B1559FD7}"/>
   <bookViews>
-    <workbookView xWindow="23496" yWindow="456" windowWidth="20736" windowHeight="10704" firstSheet="2" activeTab="5" xr2:uid="{DE68D33D-2361-456F-8777-3D3631C620A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="7" xr2:uid="{DE68D33D-2361-456F-8777-3D3631C620A9}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary for Postgres" sheetId="1" r:id="rId1"/>
     <sheet name="analysis data with dummy vars" sheetId="3" r:id="rId2"/>
     <sheet name="first logistic regression model" sheetId="4" r:id="rId3"/>
     <sheet name="second model" sheetId="8" r:id="rId4"/>
-    <sheet name="third model" sheetId="7" r:id="rId5"/>
-    <sheet name="final model with reduced featur" sheetId="9" r:id="rId6"/>
+    <sheet name="third model" sheetId="10" r:id="rId5"/>
+    <sheet name="model 4 with gender female dumm" sheetId="13" r:id="rId6"/>
+    <sheet name="final model reduced features" sheetId="11" r:id="rId7"/>
+    <sheet name="Classification metrics" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="255">
   <si>
     <t>EPISODE_NUMBER</t>
   </si>
@@ -449,15 +451,9 @@
     <t>Optimization terminated successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">         Current function value: 0.605976</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Iterations 6</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                        Results: Logit</t>
-  </si>
-  <si>
     <t>===============================================================================================================================</t>
   </si>
   <si>
@@ -521,18 +517,6 @@
     <t>Confidence Interval</t>
   </si>
   <si>
-    <t xml:space="preserve">         Current function value: 0.608731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Iterations 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                 Results: Logit</t>
-  </si>
-  <si>
-    <t>================================================================================================================================================</t>
-  </si>
-  <si>
     <t>Dependent Variable:</t>
   </si>
   <si>
@@ -557,60 +541,278 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>Current function value: 0.614655</t>
-  </si>
-  <si>
     <t>Iterations 6</t>
   </si>
   <si>
-    <t>Logit Regression</t>
-  </si>
-  <si>
-    <t>Dep. Variable:</t>
-  </si>
-  <si>
-    <t>Method:</t>
-  </si>
-  <si>
-    <t>MLE</t>
-  </si>
-  <si>
-    <t>Pseudo R-squ.:</t>
-  </si>
-  <si>
-    <t>converged:</t>
-  </si>
-  <si>
-    <t>Covariance Type:</t>
-  </si>
-  <si>
-    <t>nonrobust</t>
-  </si>
-  <si>
-    <t>coef</t>
-  </si>
-  <si>
-    <t>std err</t>
+    <t>cans_ldf_social_func</t>
+  </si>
+  <si>
+    <t>cans_ys_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                          Results: Logit</t>
+  </si>
+  <si>
+    <t>Current function value: 0.590528</t>
+  </si>
+  <si>
+    <t>cans_ldf_develop</t>
+  </si>
+  <si>
+    <t>cans_ldf_family</t>
+  </si>
+  <si>
+    <t>cans_ldf_legal</t>
+  </si>
+  <si>
+    <t>cans_ldf_rec</t>
+  </si>
+  <si>
+    <t>cans_ldf_sleep</t>
+  </si>
+  <si>
+    <t>cans_ys_community</t>
+  </si>
+  <si>
+    <t>cans_ys_interpersonal</t>
+  </si>
+  <si>
+    <t>cans_ys_optimism</t>
+  </si>
+  <si>
+    <t>cans_ys_relationship</t>
+  </si>
+  <si>
+    <t>cans_ys_resiliency</t>
+  </si>
+  <si>
+    <t>cans_ys_spirit</t>
+  </si>
+  <si>
+    <t>cans_ys_talent</t>
+  </si>
+  <si>
+    <t>cans_ys_resource</t>
+  </si>
+  <si>
+    <t>ADHD</t>
+  </si>
+  <si>
+    <t>Adjustment disorder  unspecified</t>
+  </si>
+  <si>
+    <t>Adjustment disorder with anxiety</t>
+  </si>
+  <si>
+    <t>Adjustment disorder with mixed disturbance of emotions and conduct</t>
+  </si>
+  <si>
+    <t>Disruptive mood dysregulation disorder</t>
+  </si>
+  <si>
+    <t>Generalized anxiety disorder</t>
+  </si>
+  <si>
+    <t>Major depressive disorder  single episode  moderate</t>
+  </si>
+  <si>
+    <t>Oppositional defiant disorder</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Persistent depressive disorder  dysthymia</t>
+  </si>
+  <si>
+    <t>Posttraumatic stress disorder</t>
+  </si>
+  <si>
+    <t>Unspecified anxiety disorder</t>
+  </si>
+  <si>
+    <t>Unspecified depressive disorder</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>No History of Trauma</t>
+  </si>
+  <si>
+    <t>Trauma unknown</t>
+  </si>
+  <si>
+    <t>History of Trauma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable </t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>LCL</t>
+  </si>
+  <si>
+    <t>UCL</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Level of Care</t>
+  </si>
+  <si>
+    <t>Number of Episodes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Current function value: 0.590492</t>
+  </si>
+  <si>
+    <t>patient_sex_code_F</t>
+  </si>
+  <si>
+    <t>diagnosis_value_Adjustment disorder  unspecified</t>
+  </si>
+  <si>
+    <t>diagnosis_value_Adjustment disorder with anxiety</t>
+  </si>
+  <si>
+    <t>diagnosis_value_Disruptive mood dysregulation disorder</t>
+  </si>
+  <si>
+    <t>diagnosis_value_Major depressive disorder  single episode  moderate</t>
+  </si>
+  <si>
+    <t>diagnosis_value_Persistent depressive disorder  dysthymia</t>
+  </si>
+  <si>
+    <t>diagnosis_value_Unspecified depressive disorder</t>
+  </si>
+  <si>
+    <t>diagnosis_value_Adjustment disorder with mixed disturbance of emotions and conduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Current function value: 0.607780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Iterations 5</t>
+  </si>
+  <si>
+    <t>Dep. Variable:                      y   No. Observations:                  927</t>
+  </si>
+  <si>
+    <t>Model:                          Logit   Df Residuals:                      917</t>
+  </si>
+  <si>
+    <t>Method:                           MLE   Df Model:                            9</t>
+  </si>
+  <si>
+    <t>Date:                Mon, 15 Jun 2020   Pseudo R-squ.:                  0.1055</t>
+  </si>
+  <si>
+    <t>Time:                        11:54:44   Log-Likelihood:                -563.41</t>
+  </si>
+  <si>
+    <t>converged:                       True   LL-Null:                       -629.86</t>
+  </si>
+  <si>
+    <t>Covariance Type:            nonrobust   LLR p-value:                 2.999e-24</t>
   </si>
   <si>
     <t>const</t>
   </si>
   <si>
-    <t>cans_ldf_social_func</t>
-  </si>
-  <si>
-    <t>cans_ys_family</t>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Reduced Logistic Regression Training Data Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logit Regression Results                           </t>
+  </si>
+  <si>
+    <t>Results: Logit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Current function value: 0.605976</t>
+  </si>
+  <si>
+    <t>ELR Algorithm</t>
+  </si>
+  <si>
+    <t>Default L1 Regularization</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Confusion Matrix</t>
+  </si>
+  <si>
+    <t>Actual Not Discharged Successfully</t>
+  </si>
+  <si>
+    <t>Actual Discharged Successfully</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Predicted Not</t>
+  </si>
+  <si>
+    <t>Predicted Successful</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>macro avg</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
+  </si>
+  <si>
+    <t>Not Successful</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Classification Report</t>
+  </si>
+  <si>
+    <t>Acuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +871,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -690,7 +900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -698,11 +908,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -732,17 +971,46 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1613,13 +1881,13 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E13" s="5">
         <v>0.11899999999999999</v>
@@ -1634,13 +1902,13 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E14" s="5">
         <v>1582.3905999999999</v>
@@ -1655,13 +1923,13 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="22">
+        <v>166</v>
+      </c>
+      <c r="C15" s="18">
         <v>43987.678472222222</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E15" s="5">
         <v>1767.5038999999999</v>
@@ -1676,13 +1944,13 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C16" s="5">
         <v>1264</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E16" s="5">
         <v>-755.2</v>
@@ -1697,13 +1965,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C17" s="5">
         <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E17" s="5">
         <v>-857.59</v>
@@ -1718,15 +1986,15 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C18" s="5">
         <v>1228</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="23">
+        <v>163</v>
+      </c>
+      <c r="E18" s="19">
         <v>6.9552999999999995E-26</v>
       </c>
       <c r="F18" s="5"/>
@@ -1739,13 +2007,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -1760,7 +2028,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C20" s="5">
         <v>35</v>
@@ -3109,15 +3377,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B89195-DCB1-41AE-9A1E-F15D36605B38}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="49.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -3127,36 +3397,34 @@
     </row>
     <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>140</v>
-      </c>
+      <c r="A5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
         <v>143</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>144</v>
-      </c>
-      <c r="C6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
       </c>
       <c r="E6">
         <v>0.107</v>
@@ -3164,13 +3432,13 @@
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E7">
         <v>1581.9074000000001</v>
@@ -3181,7 +3449,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E8">
         <v>1710.4583</v>
@@ -3189,16 +3457,16 @@
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9">
         <v>1264</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <v>-765.95</v>
@@ -3206,16 +3474,16 @@
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C10">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E10">
         <v>-857.59</v>
@@ -3223,33 +3491,33 @@
     </row>
     <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
         <v>153</v>
-      </c>
-      <c r="B11" t="s">
-        <v>155</v>
       </c>
       <c r="C11">
         <v>1239</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="17">
+        <v>155</v>
+      </c>
+      <c r="F11" s="22">
         <v>1.7326E-26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3257,369 +3525,387 @@
     </row>
     <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>100</v>
-      </c>
+      <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="C16">
+        <v>0.13489999999999999</v>
+      </c>
+      <c r="D16">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.94330000000000003</v>
+      </c>
+      <c r="F16">
+        <v>-0.25469999999999998</v>
+      </c>
+      <c r="G16">
+        <v>0.27389999999999998</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="C17">
-        <v>0.13489999999999999</v>
-      </c>
-      <c r="D17">
-        <v>7.1099999999999997E-2</v>
-      </c>
-      <c r="E17">
-        <v>0.94330000000000003</v>
-      </c>
-      <c r="F17">
-        <v>-0.25469999999999998</v>
-      </c>
-      <c r="G17">
-        <v>0.27389999999999998</v>
+      <c r="A17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="14">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D17" s="14">
+        <v>9.6669999999999998</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="14">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B18" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>0.43830000000000002</v>
       </c>
       <c r="C18" s="14">
-        <v>5.0000000000000001E-4</v>
+        <v>0.16789999999999999</v>
       </c>
       <c r="D18" s="14">
-        <v>9.6669999999999998</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0</v>
+        <v>2.6114000000000002</v>
+      </c>
+      <c r="E18" s="14">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F18" s="14">
-        <v>4.0000000000000001E-3</v>
+        <v>0.10929999999999999</v>
       </c>
       <c r="G18" s="14">
-        <v>6.0000000000000001E-3</v>
+        <v>0.76729999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B19" s="14">
-        <v>0.43830000000000002</v>
+        <v>0.1608</v>
       </c>
       <c r="C19" s="14">
-        <v>0.16789999999999999</v>
+        <v>8.7300000000000003E-2</v>
       </c>
       <c r="D19" s="14">
-        <v>2.6114000000000002</v>
+        <v>1.8420000000000001</v>
       </c>
       <c r="E19" s="14">
-        <v>8.9999999999999993E-3</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="F19" s="14">
-        <v>0.10929999999999999</v>
+        <v>-1.03E-2</v>
       </c>
       <c r="G19" s="14">
-        <v>0.76729999999999998</v>
+        <v>0.33189999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="14">
-        <v>0.1608</v>
-      </c>
-      <c r="C20" s="14">
-        <v>8.7300000000000003E-2</v>
-      </c>
-      <c r="D20" s="14">
-        <v>1.8420000000000001</v>
-      </c>
-      <c r="E20" s="14">
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="F20" s="14">
-        <v>-1.03E-2</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0.33189999999999997</v>
+      <c r="A20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>-0.106</v>
+      </c>
+      <c r="C20">
+        <v>0.1096</v>
+      </c>
+      <c r="D20">
+        <v>-0.96640000000000004</v>
+      </c>
+      <c r="E20">
+        <v>0.33389999999999997</v>
+      </c>
+      <c r="F20">
+        <v>-0.32090000000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.1089</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>-0.106</v>
+        <v>-9.5200000000000007E-2</v>
       </c>
       <c r="C21">
-        <v>0.1096</v>
+        <v>8.7800000000000003E-2</v>
       </c>
       <c r="D21">
-        <v>-0.96640000000000004</v>
+        <v>-1.0847</v>
       </c>
       <c r="E21">
-        <v>0.33389999999999997</v>
+        <v>0.27810000000000001</v>
       </c>
       <c r="F21">
-        <v>-0.32090000000000002</v>
+        <v>-0.26729999999999998</v>
       </c>
       <c r="G21">
-        <v>0.1089</v>
+        <v>7.6799999999999993E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>-9.5200000000000007E-2</v>
+        <v>-6.5699999999999995E-2</v>
       </c>
       <c r="C22">
-        <v>8.7800000000000003E-2</v>
+        <v>8.4599999999999995E-2</v>
       </c>
       <c r="D22">
-        <v>-1.0847</v>
+        <v>-0.77739999999999998</v>
       </c>
       <c r="E22">
-        <v>0.27810000000000001</v>
+        <v>0.43690000000000001</v>
       </c>
       <c r="F22">
-        <v>-0.26729999999999998</v>
+        <v>-0.23150000000000001</v>
       </c>
       <c r="G22">
-        <v>7.6799999999999993E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>-6.5699999999999995E-2</v>
-      </c>
-      <c r="C23">
-        <v>8.4599999999999995E-2</v>
-      </c>
-      <c r="D23">
-        <v>-0.77739999999999998</v>
-      </c>
-      <c r="E23">
-        <v>0.43690000000000001</v>
-      </c>
-      <c r="F23">
-        <v>-0.23150000000000001</v>
-      </c>
-      <c r="G23">
-        <v>0.1</v>
+      <c r="A23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="14">
+        <v>-0.372</v>
+      </c>
+      <c r="C23" s="14">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="D23" s="14">
+        <v>-3.8037000000000001</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="F23" s="14">
+        <v>-0.56359999999999999</v>
+      </c>
+      <c r="G23" s="14">
+        <v>-0.18029999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="14">
-        <v>-0.372</v>
-      </c>
-      <c r="C24" s="14">
-        <v>9.7799999999999998E-2</v>
-      </c>
-      <c r="D24" s="14">
-        <v>-3.8037000000000001</v>
-      </c>
-      <c r="E24" s="14">
-        <v>1E-4</v>
-      </c>
-      <c r="F24" s="14">
-        <v>-0.56359999999999999</v>
-      </c>
-      <c r="G24" s="14">
-        <v>-0.18029999999999999</v>
+      <c r="A24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="E24">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="F24">
+        <v>-0.1613</v>
+      </c>
+      <c r="G24">
+        <v>0.43990000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>0.13930000000000001</v>
+        <v>-0.1366</v>
       </c>
       <c r="C25">
-        <v>0.15340000000000001</v>
+        <v>0.1246</v>
       </c>
       <c r="D25">
-        <v>0.90839999999999999</v>
+        <v>-1.0965</v>
       </c>
       <c r="E25">
-        <v>0.36370000000000002</v>
+        <v>0.27289999999999998</v>
       </c>
       <c r="F25">
-        <v>-0.1613</v>
+        <v>-0.38080000000000003</v>
       </c>
       <c r="G25">
-        <v>0.43990000000000001</v>
+        <v>0.1076</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>-0.1366</v>
+        <v>-4.1200000000000001E-2</v>
       </c>
       <c r="C26">
-        <v>0.1246</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D26">
-        <v>-1.0965</v>
+        <v>-0.4738</v>
       </c>
       <c r="E26">
-        <v>0.27289999999999998</v>
+        <v>0.63570000000000004</v>
       </c>
       <c r="F26">
-        <v>-0.38080000000000003</v>
+        <v>-0.2117</v>
       </c>
       <c r="G26">
-        <v>0.1076</v>
+        <v>0.1293</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B27">
-        <v>-4.1200000000000001E-2</v>
+        <v>-0.38869999999999999</v>
       </c>
       <c r="C27">
-        <v>8.6999999999999994E-2</v>
+        <v>0.16259999999999999</v>
       </c>
       <c r="D27">
-        <v>-0.4738</v>
+        <v>-2.3906000000000001</v>
       </c>
       <c r="E27">
-        <v>0.63570000000000004</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="F27">
-        <v>-0.2117</v>
+        <v>-0.70750000000000002</v>
       </c>
       <c r="G27">
-        <v>0.1293</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28">
-        <v>-0.38869999999999999</v>
-      </c>
-      <c r="C28">
-        <v>0.16259999999999999</v>
-      </c>
-      <c r="D28">
-        <v>-2.3906000000000001</v>
-      </c>
-      <c r="E28">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="F28">
-        <v>-0.70750000000000002</v>
-      </c>
-      <c r="G28">
-        <v>-7.0000000000000007E-2</v>
+      <c r="A28" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="14">
+        <v>-6.0100000000000001E-2</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D28" s="14">
+        <v>-3.2717000000000001</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F28" s="14">
+        <v>-9.6199999999999994E-2</v>
+      </c>
+      <c r="G28" s="14">
+        <v>-2.41E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="14">
-        <v>-6.0100000000000001E-2</v>
+        <v>0.2651</v>
       </c>
       <c r="C29" s="14">
-        <v>1.84E-2</v>
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="D29" s="14">
-        <v>-3.2717000000000001</v>
+        <v>2.9950999999999999</v>
       </c>
       <c r="E29" s="14">
-        <v>1.1000000000000001E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="F29" s="14">
-        <v>-9.6199999999999994E-2</v>
+        <v>9.1600000000000001E-2</v>
       </c>
       <c r="G29" s="14">
-        <v>-2.41E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="14">
-        <v>0.2651</v>
-      </c>
-      <c r="C30" s="14">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="D30" s="14">
-        <v>2.9950999999999999</v>
-      </c>
-      <c r="E30" s="14">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="F30" s="14">
-        <v>9.1600000000000001E-2</v>
-      </c>
-      <c r="G30" s="14">
         <v>0.43859999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30">
+        <v>-2.01E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B31">
-        <v>-2.01E-2</v>
+        <v>-0.2626</v>
       </c>
       <c r="C31" t="s">
         <v>107</v>
@@ -3639,10 +3925,10 @@
     </row>
     <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B32">
-        <v>-0.2626</v>
+        <v>-6.9599999999999995E-2</v>
       </c>
       <c r="C32" t="s">
         <v>107</v>
@@ -3662,10 +3948,10 @@
     </row>
     <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B33">
-        <v>-6.9599999999999995E-2</v>
+        <v>-0.1018</v>
       </c>
       <c r="C33" t="s">
         <v>107</v>
@@ -3685,10 +3971,10 @@
     </row>
     <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B34">
-        <v>-0.1018</v>
+        <v>-0.1482</v>
       </c>
       <c r="C34" t="s">
         <v>107</v>
@@ -3708,10 +3994,10 @@
     </row>
     <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B35">
-        <v>-0.1482</v>
+        <v>-0.1022</v>
       </c>
       <c r="C35" t="s">
         <v>107</v>
@@ -3729,170 +4015,147 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B36">
-        <v>-0.1022</v>
-      </c>
-      <c r="C36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+        <v>-0.59760000000000002</v>
+      </c>
+      <c r="C36">
+        <v>0.31909999999999999</v>
+      </c>
+      <c r="D36">
+        <v>-1.8726</v>
+      </c>
+      <c r="E36">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="F36">
+        <v>-1.2231000000000001</v>
+      </c>
+      <c r="G36">
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B37">
-        <v>-0.59760000000000002</v>
+        <v>-0.18260000000000001</v>
       </c>
       <c r="C37">
-        <v>0.31909999999999999</v>
+        <v>0.27429999999999999</v>
       </c>
       <c r="D37">
-        <v>-1.8726</v>
+        <v>-0.66569999999999996</v>
       </c>
       <c r="E37">
-        <v>6.1100000000000002E-2</v>
+        <v>0.50560000000000005</v>
       </c>
       <c r="F37">
-        <v>-1.2231000000000001</v>
+        <v>-0.72030000000000005</v>
       </c>
       <c r="G37">
-        <v>2.7900000000000001E-2</v>
+        <v>0.35510000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B38">
-        <v>-0.18260000000000001</v>
+        <v>-0.63519999999999999</v>
       </c>
       <c r="C38">
-        <v>0.27429999999999999</v>
+        <v>0.28770000000000001</v>
       </c>
       <c r="D38">
-        <v>-0.66569999999999996</v>
+        <v>-2.2080000000000002</v>
       </c>
       <c r="E38">
-        <v>0.50560000000000005</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="F38">
-        <v>-0.72030000000000005</v>
+        <v>-1.1991000000000001</v>
       </c>
       <c r="G38">
-        <v>0.35510000000000003</v>
+        <v>-7.1400000000000005E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B39">
-        <v>-0.63519999999999999</v>
+        <v>-5.2499999999999998E-2</v>
       </c>
       <c r="C39">
-        <v>0.28770000000000001</v>
+        <v>0.1709</v>
       </c>
       <c r="D39">
-        <v>-2.2080000000000002</v>
+        <v>-0.307</v>
       </c>
       <c r="E39">
-        <v>2.7199999999999998E-2</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="F39">
-        <v>-1.1991000000000001</v>
+        <v>-0.38740000000000002</v>
       </c>
       <c r="G39">
-        <v>-7.1400000000000005E-2</v>
+        <v>0.28249999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B40">
-        <v>-5.2499999999999998E-2</v>
+        <v>0.1172</v>
       </c>
       <c r="C40">
-        <v>0.1709</v>
+        <v>0.2883</v>
       </c>
       <c r="D40">
-        <v>-0.307</v>
+        <v>0.40670000000000001</v>
       </c>
       <c r="E40">
-        <v>0.75890000000000002</v>
+        <v>0.68420000000000003</v>
       </c>
       <c r="F40">
-        <v>-0.38740000000000002</v>
+        <v>-0.44779999999999998</v>
       </c>
       <c r="G40">
-        <v>0.28249999999999997</v>
+        <v>0.68220000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B41">
-        <v>0.1172</v>
+        <v>0.1661</v>
       </c>
       <c r="C41">
-        <v>0.2883</v>
+        <v>0.2974</v>
       </c>
       <c r="D41">
-        <v>0.40670000000000001</v>
+        <v>0.55830000000000002</v>
       </c>
       <c r="E41">
-        <v>0.68420000000000003</v>
+        <v>0.5766</v>
       </c>
       <c r="F41">
-        <v>-0.44779999999999998</v>
+        <v>-0.41689999999999999</v>
       </c>
       <c r="G41">
-        <v>0.68220000000000003</v>
+        <v>0.74909999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42">
-        <v>0.1661</v>
-      </c>
-      <c r="C42">
-        <v>0.2974</v>
-      </c>
-      <c r="D42">
-        <v>0.55830000000000002</v>
-      </c>
-      <c r="E42">
-        <v>0.5766</v>
-      </c>
-      <c r="F42">
-        <v>-0.41689999999999999</v>
-      </c>
-      <c r="G42">
-        <v>0.74909999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
-        <v>140</v>
+      <c r="A42" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3901,755 +4164,1179 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B1DCEC-8084-49B0-B709-E60E28DB5651}">
-  <dimension ref="A1:G42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06288831-B52E-4B65-9060-79C1A10678D2}">
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="70.36328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1546.9652000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="18">
+        <v>43996.704861111109</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1767.1442999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1237</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-730.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="B13" s="5">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-838.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="B14" s="5">
+        <v>1194</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1586.8731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="19">
-        <v>1710.2819999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9">
-        <v>1264</v>
-      </c>
-      <c r="D9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="19">
-        <v>-769.44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10">
+      <c r="D14" s="19">
+        <v>1.9285E-25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="20">
+        <v>-0.10539999999999999</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0.1421</v>
+      </c>
+      <c r="D19" s="20">
+        <v>-0.74199999999999999</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.45810000000000001</v>
+      </c>
+      <c r="F19" s="20">
+        <v>-0.38390000000000002</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.1731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="C20" s="21">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D20" s="21">
+        <v>9.6211000000000002</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="G20" s="21">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="20">
+        <v>-0.1356</v>
+      </c>
+      <c r="C21" s="20">
+        <v>0.1308</v>
+      </c>
+      <c r="D21" s="20">
+        <v>-1.0367999999999999</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.29980000000000001</v>
+      </c>
+      <c r="F21" s="20">
+        <v>-0.39200000000000002</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0.1207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="20">
+        <v>-3.3399999999999999E-2</v>
+      </c>
+      <c r="C22" s="20">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="D22" s="20">
+        <v>-0.34489999999999998</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.73009999999999997</v>
+      </c>
+      <c r="F22" s="20">
+        <v>-0.22309999999999999</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0.15629999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="20">
+        <v>-6.08E-2</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0.1273</v>
+      </c>
+      <c r="D23" s="20">
+        <v>-0.47739999999999999</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.6331</v>
+      </c>
+      <c r="F23" s="20">
+        <v>-0.31040000000000001</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0.1888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="21">
+        <v>-0.1794</v>
+      </c>
+      <c r="C24" s="21">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="D24" s="21">
+        <v>-2.1374</v>
+      </c>
+      <c r="E24" s="21">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="F24" s="21">
+        <v>-0.34389999999999998</v>
+      </c>
+      <c r="G24" s="21">
+        <v>-1.49E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="20">
+        <v>-0.10489999999999999</v>
+      </c>
+      <c r="C25" s="20">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="D25" s="20">
+        <v>-1.2353000000000001</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.2167</v>
+      </c>
+      <c r="F25" s="20">
+        <v>-0.27129999999999999</v>
+      </c>
+      <c r="G25" s="20">
+        <v>6.1499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="21">
+        <v>-0.21240000000000001</v>
+      </c>
+      <c r="C26" s="21">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D26" s="21">
+        <v>-2.2846000000000002</v>
+      </c>
+      <c r="E26" s="21">
+        <v>2.23E-2</v>
+      </c>
+      <c r="F26" s="21">
+        <v>-0.39460000000000001</v>
+      </c>
+      <c r="G26" s="21">
+        <v>-3.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="20">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="C27" s="20">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="D27" s="20">
+        <v>1.6476</v>
+      </c>
+      <c r="E27" s="20">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="F27" s="20">
+        <v>-2.93E-2</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0.33889999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="20">
+        <v>-0.15790000000000001</v>
+      </c>
+      <c r="C28" s="20">
+        <v>0.1115</v>
+      </c>
+      <c r="D28" s="20">
+        <v>-1.4165000000000001</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0.15659999999999999</v>
+      </c>
+      <c r="F28" s="20">
+        <v>-0.3765</v>
+      </c>
+      <c r="G28" s="20">
+        <v>6.0600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="20">
+        <v>-7.9000000000000008E-3</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0.1004</v>
+      </c>
+      <c r="D29" s="20">
+        <v>-7.8799999999999995E-2</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="F29" s="20">
+        <v>-0.2046</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0.1888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" s="19">
-        <v>-857.59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11">
-        <v>1240</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B30" s="20">
+        <v>-0.22639999999999999</v>
+      </c>
+      <c r="C30" s="20">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="D30" s="20">
+        <v>-2.2759</v>
+      </c>
+      <c r="E30" s="20">
+        <v>2.29E-2</v>
+      </c>
+      <c r="F30" s="20">
+        <v>-0.4214</v>
+      </c>
+      <c r="G30" s="20">
+        <v>-3.1399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="20">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0.1366</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0.44929999999999998</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0.6532</v>
+      </c>
+      <c r="F31" s="20">
+        <v>-0.20630000000000001</v>
+      </c>
+      <c r="G31" s="20">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="20">
+        <v>-3.4500000000000003E-2</v>
+      </c>
+      <c r="C32" s="20">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="D32" s="20">
+        <v>-0.37290000000000001</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0.70920000000000005</v>
+      </c>
+      <c r="F32" s="20">
+        <v>-0.2155</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0.14660000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="20">
+        <v>-4.4900000000000002E-2</v>
+      </c>
+      <c r="C33" s="20">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="D33" s="20">
+        <v>-0.65429999999999999</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.51290000000000002</v>
+      </c>
+      <c r="F33" s="20">
+        <v>-0.17929999999999999</v>
+      </c>
+      <c r="G33" s="20">
+        <v>8.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="19">
-        <v>1.3143999999999999E-25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
+      <c r="B34" s="21">
+        <v>-0.3115</v>
+      </c>
+      <c r="C34" s="21">
+        <v>9.35E-2</v>
+      </c>
+      <c r="D34" s="21">
+        <v>-3.3311999999999999</v>
+      </c>
+      <c r="E34" s="21">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F34" s="21">
+        <v>-0.49490000000000001</v>
+      </c>
+      <c r="G34" s="21">
+        <v>-0.12820000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="20">
+        <v>0.1321</v>
+      </c>
+      <c r="C35" s="20">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="D35" s="20">
+        <v>1.3517999999999999</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0.1764</v>
+      </c>
+      <c r="F35" s="20">
+        <v>-5.9400000000000001E-2</v>
+      </c>
+      <c r="G35" s="20">
+        <v>0.32369999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="20">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C36" s="20">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="D36" s="20">
+        <v>0.77029999999999998</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="F36" s="20">
+        <v>-9.8799999999999999E-2</v>
+      </c>
+      <c r="G36" s="20">
+        <v>0.2268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="20">
+        <v>-6.7400000000000002E-2</v>
+      </c>
+      <c r="C37" s="20">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="D37" s="20">
+        <v>-0.77839999999999998</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="F37" s="20">
+        <v>-0.23699999999999999</v>
+      </c>
+      <c r="G37" s="20">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="20">
+        <v>-0.14460000000000001</v>
+      </c>
+      <c r="C38" s="20">
+        <v>9.01E-2</v>
+      </c>
+      <c r="D38" s="20">
+        <v>-1.6043000000000001</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0.1086</v>
+      </c>
+      <c r="F38" s="20">
+        <v>-0.32119999999999999</v>
+      </c>
+      <c r="G38" s="20">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="20">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="C39" s="20">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0.44640000000000002</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="F39" s="20">
+        <v>-9.2899999999999996E-2</v>
+      </c>
+      <c r="G39" s="20">
+        <v>0.1477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="20">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="C40" s="20">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="F40" s="20">
+        <v>-0.11260000000000001</v>
+      </c>
+      <c r="G40" s="20">
+        <v>0.2092</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="20">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="C41" s="20">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="D41" s="20">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0.7268</v>
+      </c>
+      <c r="F41" s="20">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="G41" s="20">
+        <v>0.19489999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="20">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="C42" s="20">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="D42" s="20">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="F42" s="20">
+        <v>-4.0899999999999999E-2</v>
+      </c>
+      <c r="G42" s="20">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="21">
+        <v>-5.3900000000000003E-2</v>
+      </c>
+      <c r="C43" s="21">
         <v>0.02</v>
       </c>
-      <c r="C17">
-        <v>0.13439999999999999</v>
-      </c>
-      <c r="D17">
-        <v>0.14910000000000001</v>
-      </c>
-      <c r="E17" s="19">
-        <v>0.88149999999999995</v>
-      </c>
-      <c r="F17">
-        <v>-0.24340000000000001</v>
-      </c>
-      <c r="G17">
-        <v>0.28339999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="14">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="C18" s="14">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D18" s="14">
-        <v>9.5327000000000002</v>
-      </c>
-      <c r="E18" s="21">
-        <v>0</v>
-      </c>
-      <c r="F18" s="14">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="G18" s="14">
-        <v>5.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="14">
-        <v>0.15060000000000001</v>
-      </c>
-      <c r="C19" s="14">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1.7312000000000001</v>
-      </c>
-      <c r="E19" s="21">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="F19" s="14">
-        <v>-1.9900000000000001E-2</v>
-      </c>
-      <c r="G19" s="14">
-        <v>0.3211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>-0.1139</v>
-      </c>
-      <c r="C20">
-        <v>0.1095</v>
-      </c>
-      <c r="D20">
-        <v>-1.0401</v>
-      </c>
-      <c r="E20" s="19">
-        <v>0.29830000000000001</v>
-      </c>
-      <c r="F20">
-        <v>-0.32850000000000001</v>
-      </c>
-      <c r="G20">
-        <v>0.1007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>-0.1042</v>
-      </c>
-      <c r="C21">
-        <v>8.7400000000000005E-2</v>
-      </c>
-      <c r="D21">
-        <v>-1.1917</v>
-      </c>
-      <c r="E21" s="19">
-        <v>0.2334</v>
-      </c>
-      <c r="F21">
-        <v>-0.27539999999999998</v>
-      </c>
-      <c r="G21">
-        <v>6.7100000000000007E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>-6.4399999999999999E-2</v>
-      </c>
-      <c r="C22">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="D22">
-        <v>-0.76160000000000005</v>
-      </c>
-      <c r="E22" s="19">
-        <v>0.44629999999999997</v>
-      </c>
-      <c r="F22">
-        <v>-0.2301</v>
-      </c>
-      <c r="G22">
-        <v>0.1013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="14">
-        <v>-0.36599999999999999</v>
-      </c>
-      <c r="C23" s="14">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="D23" s="14">
-        <v>-3.7542</v>
-      </c>
-      <c r="E23" s="21">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F23" s="14">
-        <v>-0.55710000000000004</v>
-      </c>
-      <c r="G23" s="14">
-        <v>-0.1749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>0.14449999999999999</v>
-      </c>
-      <c r="C24">
-        <v>0.15279999999999999</v>
-      </c>
-      <c r="D24">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="E24" s="19">
-        <v>0.34449999999999997</v>
-      </c>
-      <c r="F24">
-        <v>-0.15509999999999999</v>
-      </c>
-      <c r="G24">
-        <v>0.44409999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>-0.1128</v>
-      </c>
-      <c r="C25">
-        <v>0.1241</v>
-      </c>
-      <c r="D25">
-        <v>-0.9093</v>
-      </c>
-      <c r="E25" s="19">
-        <v>0.36320000000000002</v>
-      </c>
-      <c r="F25">
-        <v>-0.35599999999999998</v>
-      </c>
-      <c r="G25">
-        <v>0.13039999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>-4.19E-2</v>
-      </c>
-      <c r="C26">
-        <v>8.6699999999999999E-2</v>
-      </c>
-      <c r="D26">
-        <v>-0.4834</v>
-      </c>
-      <c r="E26" s="19">
-        <v>0.62880000000000003</v>
-      </c>
-      <c r="F26">
-        <v>-0.2117</v>
-      </c>
-      <c r="G26">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="C27">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D27">
-        <v>0.7611</v>
-      </c>
-      <c r="E27" s="19">
-        <v>0.4466</v>
-      </c>
-      <c r="F27">
-        <v>-4.19E-2</v>
-      </c>
-      <c r="G27">
-        <v>9.5100000000000004E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="14">
-        <v>-6.1699999999999998E-2</v>
-      </c>
-      <c r="C28" s="14">
-        <v>1.83E-2</v>
-      </c>
-      <c r="D28" s="14">
-        <v>-3.3668</v>
-      </c>
-      <c r="E28" s="21">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="F28" s="14">
-        <v>-9.7600000000000006E-2</v>
-      </c>
-      <c r="G28" s="14">
-        <v>-2.58E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="14">
-        <v>0.26329999999999998</v>
-      </c>
-      <c r="C29" s="14">
-        <v>8.8099999999999998E-2</v>
-      </c>
-      <c r="D29" s="14">
-        <v>2.9876</v>
-      </c>
-      <c r="E29" s="21">
-        <v>2.8E-3</v>
-      </c>
-      <c r="F29" s="14">
+      <c r="D43" s="21">
+        <v>-2.6958000000000002</v>
+      </c>
+      <c r="E43" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F43" s="21">
+        <v>-9.3100000000000002E-2</v>
+      </c>
+      <c r="G43" s="21">
+        <v>-1.47E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="21">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="C44" s="21">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="D44" s="21">
+        <v>3.2972999999999999</v>
+      </c>
+      <c r="E44" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="F44" s="21">
+        <v>0.12479999999999999</v>
+      </c>
+      <c r="G44" s="21">
+        <v>0.49059999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="20">
+        <v>-0.2346</v>
+      </c>
+      <c r="C45" s="20">
+        <v>0.16589999999999999</v>
+      </c>
+      <c r="D45" s="20">
+        <v>-1.4141999999999999</v>
+      </c>
+      <c r="E45" s="20">
+        <v>0.1573</v>
+      </c>
+      <c r="F45" s="20">
+        <v>-0.55979999999999996</v>
+      </c>
+      <c r="G45" s="20">
         <v>9.06E-2</v>
       </c>
-      <c r="G29" s="14">
-        <v>0.43609999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30">
-        <v>2.86E-2</v>
-      </c>
-      <c r="C30">
-        <v>8469056.9065000005</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" s="19">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>-16599046.4911</v>
-      </c>
-      <c r="G30">
-        <v>16599046.5483</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31">
-        <v>-0.20150000000000001</v>
-      </c>
-      <c r="C31">
-        <v>8469056.9065000005</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="19">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>-16599046.7213</v>
-      </c>
-      <c r="G31">
-        <v>16599046.3182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32">
-        <v>-1.9099999999999999E-2</v>
-      </c>
-      <c r="C32">
-        <v>8469056.9065000005</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" s="19">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>-16599046.538899999</v>
-      </c>
-      <c r="G32">
-        <v>16599046.500600001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33">
-        <v>-4.8500000000000001E-2</v>
-      </c>
-      <c r="C33">
-        <v>8469056.9065000005</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="19">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>-16599046.5682</v>
-      </c>
-      <c r="G33">
-        <v>16599046.4712</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34">
-        <v>-0.1153</v>
-      </c>
-      <c r="C34">
-        <v>8469056.9065000005</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" s="19">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>-16599046.635</v>
-      </c>
-      <c r="G34">
-        <v>16599046.4044</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35">
-        <v>-2.8199999999999999E-2</v>
-      </c>
-      <c r="C35">
-        <v>8469056.9065000005</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" s="19">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>-16599046.547900001</v>
-      </c>
-      <c r="G35">
-        <v>16599046.4915</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36">
-        <v>-0.59309999999999996</v>
-      </c>
-      <c r="C36">
-        <v>0.31759999999999999</v>
-      </c>
-      <c r="D36">
-        <v>-1.8673</v>
-      </c>
-      <c r="E36" s="19">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="F36">
-        <v>-1.2156</v>
-      </c>
-      <c r="G36">
-        <v>2.9399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37">
-        <v>-0.184</v>
-      </c>
-      <c r="C37">
-        <v>0.27450000000000002</v>
-      </c>
-      <c r="D37">
-        <v>-0.67010000000000003</v>
-      </c>
-      <c r="E37" s="19">
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="F37">
-        <v>-0.72199999999999998</v>
-      </c>
-      <c r="G37">
-        <v>0.35410000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38">
-        <v>-0.65629999999999999</v>
-      </c>
-      <c r="C38">
-        <v>0.2878</v>
-      </c>
-      <c r="D38">
-        <v>-2.2801</v>
-      </c>
-      <c r="E38" s="19">
-        <v>2.2599999999999999E-2</v>
-      </c>
-      <c r="F38">
-        <v>-1.2204999999999999</v>
-      </c>
-      <c r="G38">
-        <v>-9.2100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="C39">
-        <v>0.17050000000000001</v>
-      </c>
-      <c r="D39">
-        <v>-0.41049999999999998</v>
-      </c>
-      <c r="E39" s="19">
-        <v>0.68140000000000001</v>
-      </c>
-      <c r="F39">
-        <v>-0.4042</v>
-      </c>
-      <c r="G39">
-        <v>0.26419999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40">
-        <v>7.3700000000000002E-2</v>
-      </c>
-      <c r="C40">
-        <v>0.28749999999999998</v>
-      </c>
-      <c r="D40">
-        <v>0.25629999999999997</v>
-      </c>
-      <c r="E40" s="19">
-        <v>0.79769999999999996</v>
-      </c>
-      <c r="F40">
-        <v>-0.48980000000000001</v>
-      </c>
-      <c r="G40">
-        <v>0.63719999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41">
-        <v>0.13769999999999999</v>
-      </c>
-      <c r="C41">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="D41">
-        <v>0.4652</v>
-      </c>
-      <c r="E41" s="19">
-        <v>0.64180000000000004</v>
-      </c>
-      <c r="F41">
-        <v>-0.44240000000000002</v>
-      </c>
-      <c r="G41">
-        <v>0.71779999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>164</v>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="20">
+        <v>0.22520000000000001</v>
+      </c>
+      <c r="C46" s="20">
+        <v>0.44750000000000001</v>
+      </c>
+      <c r="D46" s="20">
+        <v>0.50329999999999997</v>
+      </c>
+      <c r="E46" s="20">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="F46" s="20">
+        <v>-0.65190000000000003</v>
+      </c>
+      <c r="G46" s="20">
+        <v>1.1024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="20">
+        <v>0.26690000000000003</v>
+      </c>
+      <c r="C47" s="20">
+        <v>0.47570000000000001</v>
+      </c>
+      <c r="D47" s="20">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="E47" s="20">
+        <v>0.57479999999999998</v>
+      </c>
+      <c r="F47" s="20">
+        <v>-0.66549999999999998</v>
+      </c>
+      <c r="G47" s="20">
+        <v>1.1992</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" s="20">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="C48" s="20">
+        <v>0.4536</v>
+      </c>
+      <c r="D48" s="20">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="E48" s="20">
+        <v>0.42380000000000001</v>
+      </c>
+      <c r="F48" s="20">
+        <v>-0.52629999999999999</v>
+      </c>
+      <c r="G48" s="20">
+        <v>1.2519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="20">
+        <v>-0.2959</v>
+      </c>
+      <c r="C49" s="20">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="D49" s="20">
+        <v>-0.81010000000000004</v>
+      </c>
+      <c r="E49" s="20">
+        <v>0.41789999999999999</v>
+      </c>
+      <c r="F49" s="20">
+        <v>-1.0119</v>
+      </c>
+      <c r="G49" s="20">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="20">
+        <v>-0.20250000000000001</v>
+      </c>
+      <c r="C50" s="20">
+        <v>0.47170000000000001</v>
+      </c>
+      <c r="D50" s="20">
+        <v>-0.4294</v>
+      </c>
+      <c r="E50" s="20">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="F50" s="20">
+        <v>-1.1271</v>
+      </c>
+      <c r="G50" s="20">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="20">
+        <v>-0.26619999999999999</v>
+      </c>
+      <c r="C51" s="20">
+        <v>0.38690000000000002</v>
+      </c>
+      <c r="D51" s="20">
+        <v>-0.68820000000000003</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="F51" s="20">
+        <v>-1.0245</v>
+      </c>
+      <c r="G51" s="20">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="21">
+        <v>-0.76659999999999995</v>
+      </c>
+      <c r="C52" s="21">
+        <v>0.31180000000000002</v>
+      </c>
+      <c r="D52" s="21">
+        <v>-2.4584000000000001</v>
+      </c>
+      <c r="E52" s="21">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F52" s="21">
+        <v>-1.3776999999999999</v>
+      </c>
+      <c r="G52" s="21">
+        <v>-0.15540000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="20">
+        <v>-0.57840000000000003</v>
+      </c>
+      <c r="C53" s="20">
+        <v>0.43790000000000001</v>
+      </c>
+      <c r="D53" s="20">
+        <v>-1.3207</v>
+      </c>
+      <c r="E53" s="20">
+        <v>0.18659999999999999</v>
+      </c>
+      <c r="F53" s="20">
+        <v>-1.4366000000000001</v>
+      </c>
+      <c r="G53" s="20">
+        <v>0.27989999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="20">
+        <v>-0.1822</v>
+      </c>
+      <c r="C54" s="20">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="D54" s="20">
+        <v>-0.63619999999999999</v>
+      </c>
+      <c r="E54" s="20">
+        <v>0.52470000000000006</v>
+      </c>
+      <c r="F54" s="20">
+        <v>-0.74350000000000005</v>
+      </c>
+      <c r="G54" s="20">
+        <v>0.37909999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="20">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C55" s="20">
+        <v>0.42530000000000001</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="E55" s="20">
+        <v>0.96809999999999996</v>
+      </c>
+      <c r="F55" s="20">
+        <v>-0.81659999999999999</v>
+      </c>
+      <c r="G55" s="20">
+        <v>0.85060000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="21">
+        <v>-0.68930000000000002</v>
+      </c>
+      <c r="C56" s="21">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="D56" s="21">
+        <v>-2.3083</v>
+      </c>
+      <c r="E56" s="21">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F56" s="21">
+        <v>-1.2746</v>
+      </c>
+      <c r="G56" s="21">
+        <v>-0.104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="20">
+        <v>2.92E-2</v>
+      </c>
+      <c r="C57" s="20">
+        <v>0.19439999999999999</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0.15010000000000001</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0.88070000000000004</v>
+      </c>
+      <c r="F57" s="20">
+        <v>-0.3518</v>
+      </c>
+      <c r="G57" s="20">
+        <v>0.41010000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="20">
+        <v>-0.34439999999999998</v>
+      </c>
+      <c r="C58" s="20">
+        <v>0.3518</v>
+      </c>
+      <c r="D58" s="20">
+        <v>-0.97899999999999998</v>
+      </c>
+      <c r="E58" s="20">
+        <v>0.3276</v>
+      </c>
+      <c r="F58" s="20">
+        <v>-1.034</v>
+      </c>
+      <c r="G58" s="20">
+        <v>0.34510000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="20">
+        <v>-1.5699999999999999E-2</v>
+      </c>
+      <c r="C59" s="20">
+        <v>0.3054</v>
+      </c>
+      <c r="D59" s="20">
+        <v>-5.1400000000000001E-2</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F59" s="20">
+        <v>-0.61419999999999997</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0.58279999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="20">
+        <v>2.29E-2</v>
+      </c>
+      <c r="C60" s="20">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D60" s="20">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="E60" s="20">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="F60" s="20">
+        <v>-0.57489999999999997</v>
+      </c>
+      <c r="G60" s="20">
+        <v>0.62060000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="20">
+        <v>-0.57489999999999997</v>
+      </c>
+      <c r="C61" s="20">
+        <v>0.41189999999999999</v>
+      </c>
+      <c r="D61" s="20">
+        <v>-1.3956999999999999</v>
+      </c>
+      <c r="E61" s="20">
+        <v>0.1628</v>
+      </c>
+      <c r="F61" s="20">
+        <v>-1.3823000000000001</v>
+      </c>
+      <c r="G61" s="20">
+        <v>0.2324</v>
       </c>
     </row>
   </sheetData>
@@ -4658,321 +5345,1893 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A6C249-8E4F-47EC-813F-321DFBFDFE15}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6F3514-C747-4C12-BFD2-83C2F0486693}">
+  <dimension ref="A1:G62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1546.8764000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="28">
+        <v>43997.495833333334</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1767.0554999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1237</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="7">
+        <v>-730.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="7">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-838.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1194</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1.8597999999999999E-25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="27">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="C19" s="27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D19" s="27">
+        <v>9.6227</v>
+      </c>
+      <c r="E19" s="27">
+        <v>0</v>
+      </c>
+      <c r="F19" s="27">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="G19" s="27">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="25">
+        <v>-0.13569999999999999</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0.1308</v>
+      </c>
+      <c r="D20" s="25">
+        <v>-1.0374000000000001</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.29959999999999998</v>
+      </c>
+      <c r="F20" s="25">
+        <v>-0.3921</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0.1207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="25">
+        <v>-3.3500000000000002E-2</v>
+      </c>
+      <c r="C21" s="25">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="D21" s="25">
+        <v>-0.34660000000000002</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.72889999999999999</v>
+      </c>
+      <c r="F21" s="25">
+        <v>-0.22320000000000001</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0.15609999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="25">
+        <v>-6.0499999999999998E-2</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.1273</v>
+      </c>
+      <c r="D22" s="25">
+        <v>-0.47470000000000001</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F22" s="25">
+        <v>-0.31</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0.18909999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="27">
+        <v>-0.17949999999999999</v>
+      </c>
+      <c r="C23" s="27">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="D23" s="27">
+        <v>-2.1381999999999999</v>
+      </c>
+      <c r="E23" s="27">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="F23" s="27">
+        <v>-0.34399999999999997</v>
+      </c>
+      <c r="G23" s="27">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="25">
+        <v>-0.1048</v>
+      </c>
+      <c r="C24" s="25">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="D24" s="25">
+        <v>-1.2343999999999999</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0.217</v>
+      </c>
+      <c r="F24" s="25">
+        <v>-0.27129999999999999</v>
+      </c>
+      <c r="G24" s="25">
+        <v>6.1600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="27">
+        <v>-0.21240000000000001</v>
+      </c>
+      <c r="C25" s="27">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D25" s="27">
+        <v>-2.2850999999999999</v>
+      </c>
+      <c r="E25" s="27">
+        <v>2.23E-2</v>
+      </c>
+      <c r="F25" s="27">
+        <v>-0.39460000000000001</v>
+      </c>
+      <c r="G25" s="27">
+        <v>-3.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0.1547</v>
+      </c>
+      <c r="C26" s="25">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="D26" s="25">
+        <v>1.6473</v>
+      </c>
+      <c r="E26" s="25">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="F26" s="25">
+        <v>-2.9399999999999999E-2</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0.33889999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="25">
+        <v>-0.158</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.1115</v>
+      </c>
+      <c r="D27" s="25">
+        <v>-1.4167000000000001</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0.15659999999999999</v>
+      </c>
+      <c r="F27" s="25">
+        <v>-0.3765</v>
+      </c>
+      <c r="G27" s="25">
+        <v>6.0600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="25">
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.1004</v>
+      </c>
+      <c r="D28" s="25">
+        <v>-7.5200000000000003E-2</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="F28" s="25">
+        <v>-0.20419999999999999</v>
+      </c>
+      <c r="G28" s="25">
+        <v>0.18920000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="27">
+        <v>-0.2266</v>
+      </c>
+      <c r="C29" s="27">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="D29" s="27">
+        <v>-2.2782</v>
+      </c>
+      <c r="E29" s="27">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="F29" s="27">
+        <v>-0.42159999999999997</v>
+      </c>
+      <c r="G29" s="27">
+        <v>-3.1699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="25">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="F30" s="25">
+        <v>-0.20580000000000001</v>
+      </c>
+      <c r="G30" s="25">
+        <v>0.32940000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="25">
+        <v>-3.4500000000000003E-2</v>
+      </c>
+      <c r="C31" s="25">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="D31" s="25">
+        <v>-0.373</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0.70920000000000005</v>
+      </c>
+      <c r="F31" s="25">
+        <v>-0.2155</v>
+      </c>
+      <c r="G31" s="25">
+        <v>0.14660000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="25">
+        <v>-4.4900000000000002E-2</v>
+      </c>
+      <c r="C32" s="25">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="D32" s="25">
+        <v>-0.65490000000000004</v>
+      </c>
+      <c r="E32" s="25">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="F32" s="25">
+        <v>-0.1794</v>
+      </c>
+      <c r="G32" s="25">
+        <v>8.9499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="27">
+        <v>-0.31119999999999998</v>
+      </c>
+      <c r="C33" s="27">
+        <v>9.35E-2</v>
+      </c>
+      <c r="D33" s="27">
+        <v>-3.3273000000000001</v>
+      </c>
+      <c r="E33" s="27">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F33" s="27">
+        <v>-0.4945</v>
+      </c>
+      <c r="G33" s="27">
+        <v>-0.12790000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="C34" s="25">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="D34" s="25">
+        <v>1.35</v>
+      </c>
+      <c r="E34" s="25">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F34" s="25">
+        <v>-5.96E-2</v>
+      </c>
+      <c r="G34" s="25">
+        <v>0.32350000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="25">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="C35" s="25">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="D35" s="25">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="E35" s="25">
+        <v>0.44169999999999998</v>
+      </c>
+      <c r="F35" s="25">
+        <v>-9.8900000000000002E-2</v>
+      </c>
+      <c r="G35" s="25">
+        <v>0.22670000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="25">
+        <v>-6.7400000000000002E-2</v>
+      </c>
+      <c r="C36" s="25">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="D36" s="25">
+        <v>-0.77859999999999996</v>
+      </c>
+      <c r="E36" s="25">
+        <v>0.43619999999999998</v>
+      </c>
+      <c r="F36" s="25">
+        <v>-0.23699999999999999</v>
+      </c>
+      <c r="G36" s="25">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="25">
+        <v>-0.14449999999999999</v>
+      </c>
+      <c r="C37" s="25">
+        <v>9.01E-2</v>
+      </c>
+      <c r="D37" s="25">
+        <v>-1.6040000000000001</v>
+      </c>
+      <c r="E37" s="25">
+        <v>0.1087</v>
+      </c>
+      <c r="F37" s="25">
+        <v>-0.3211</v>
+      </c>
+      <c r="G37" s="25">
+        <v>3.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="25">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="C38" s="25">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="D38" s="25">
+        <v>0.44650000000000001</v>
+      </c>
+      <c r="E38" s="25">
+        <v>0.6552</v>
+      </c>
+      <c r="F38" s="25">
+        <v>-9.2899999999999996E-2</v>
+      </c>
+      <c r="G38" s="25">
+        <v>0.1477</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="25">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="C39" s="25">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="D39" s="25">
+        <v>0.59079999999999999</v>
+      </c>
+      <c r="E39" s="25">
+        <v>0.55459999999999998</v>
+      </c>
+      <c r="F39" s="25">
+        <v>-0.1124</v>
+      </c>
+      <c r="G39" s="25">
+        <v>0.2094</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="25">
+        <v>2.93E-2</v>
+      </c>
+      <c r="C40" s="25">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="D40" s="25">
+        <v>0.3473</v>
+      </c>
+      <c r="E40" s="25">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="F40" s="25">
+        <v>-0.1361</v>
+      </c>
+      <c r="G40" s="25">
+        <v>0.1948</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="25">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="C41" s="25">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="D41" s="25">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="E41" s="25">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="F41" s="25">
+        <v>-4.0800000000000003E-2</v>
+      </c>
+      <c r="G41" s="25">
+        <v>0.10150000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="27">
+        <v>-5.4199999999999998E-2</v>
+      </c>
+      <c r="C42" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="D42" s="27">
+        <v>-2.7120000000000002</v>
+      </c>
+      <c r="E42" s="27">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F42" s="27">
+        <v>-9.3399999999999997E-2</v>
+      </c>
+      <c r="G42" s="27">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="27">
+        <v>0.30790000000000001</v>
+      </c>
+      <c r="C43" s="27">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="D43" s="27">
+        <v>3.2995000000000001</v>
+      </c>
+      <c r="E43" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="F43" s="27">
+        <v>0.125</v>
+      </c>
+      <c r="G43" s="27">
+        <v>0.49080000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="25">
+        <v>0.1053</v>
+      </c>
+      <c r="C44" s="25">
+        <v>0.1421</v>
+      </c>
+      <c r="D44" s="25">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="E44" s="25">
+        <v>0.45860000000000001</v>
+      </c>
+      <c r="F44" s="25">
+        <v>-0.17319999999999999</v>
+      </c>
+      <c r="G44" s="25">
+        <v>0.38379999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="25">
+        <v>-0.2349</v>
+      </c>
+      <c r="C45" s="25">
+        <v>0.16589999999999999</v>
+      </c>
+      <c r="D45" s="25">
+        <v>-1.4158999999999999</v>
+      </c>
+      <c r="E45" s="25">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="F45" s="25">
+        <v>-0.56020000000000003</v>
+      </c>
+      <c r="G45" s="25">
+        <v>9.0300000000000005E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="25">
+        <v>0.1236</v>
+      </c>
+      <c r="C46" s="25">
+        <v>0.44429999999999997</v>
+      </c>
+      <c r="D46" s="25">
+        <v>0.27810000000000001</v>
+      </c>
+      <c r="E46" s="25">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="F46" s="25">
+        <v>-0.74729999999999996</v>
+      </c>
+      <c r="G46" s="25">
+        <v>0.99439999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="25">
+        <v>0.1651</v>
+      </c>
+      <c r="C47" s="25">
+        <v>0.47139999999999999</v>
+      </c>
+      <c r="D47" s="25">
+        <v>0.35010000000000002</v>
+      </c>
+      <c r="E47" s="25">
+        <v>0.72619999999999996</v>
+      </c>
+      <c r="F47" s="25">
+        <v>-0.75890000000000002</v>
+      </c>
+      <c r="G47" s="25">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="25">
+        <v>0.26119999999999999</v>
+      </c>
+      <c r="C48" s="25">
+        <v>0.44890000000000002</v>
+      </c>
+      <c r="D48" s="25">
+        <v>0.58189999999999997</v>
+      </c>
+      <c r="E48" s="25">
+        <v>0.56059999999999999</v>
+      </c>
+      <c r="F48" s="25">
+        <v>-0.61870000000000003</v>
+      </c>
+      <c r="G48" s="25">
+        <v>1.1411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="25">
+        <v>-0.29630000000000001</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="D49" s="25">
+        <v>-0.81110000000000004</v>
+      </c>
+      <c r="E49" s="25">
+        <v>0.4173</v>
+      </c>
+      <c r="F49" s="25">
+        <v>-1.0123</v>
+      </c>
+      <c r="G49" s="25">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="25">
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="C50" s="25">
+        <v>0.47170000000000001</v>
+      </c>
+      <c r="D50" s="25">
+        <v>-0.43030000000000002</v>
+      </c>
+      <c r="E50" s="25">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F50" s="25">
+        <v>-1.1275999999999999</v>
+      </c>
+      <c r="G50" s="25">
+        <v>0.72160000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" s="25">
+        <v>-0.26650000000000001</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.38690000000000002</v>
+      </c>
+      <c r="D51" s="25">
+        <v>-0.68889999999999996</v>
+      </c>
+      <c r="E51" s="25">
+        <v>0.4909</v>
+      </c>
+      <c r="F51" s="25">
+        <v>-1.0247999999999999</v>
+      </c>
+      <c r="G51" s="25">
+        <v>0.49180000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="25">
+        <v>-0.76690000000000003</v>
+      </c>
+      <c r="C52" s="25">
+        <v>0.31180000000000002</v>
+      </c>
+      <c r="D52" s="25">
+        <v>-2.4592999999999998</v>
+      </c>
+      <c r="E52" s="25">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="F52" s="25">
+        <v>-1.3779999999999999</v>
+      </c>
+      <c r="G52" s="25">
+        <v>-0.15570000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="25">
+        <v>-0.57840000000000003</v>
+      </c>
+      <c r="C53" s="25">
+        <v>0.43790000000000001</v>
+      </c>
+      <c r="D53" s="25">
+        <v>-1.3208</v>
+      </c>
+      <c r="E53" s="25">
+        <v>0.18659999999999999</v>
+      </c>
+      <c r="F53" s="25">
+        <v>-1.4367000000000001</v>
+      </c>
+      <c r="G53" s="25">
+        <v>0.27989999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="25">
+        <v>-0.18149999999999999</v>
+      </c>
+      <c r="C54" s="25">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="D54" s="25">
+        <v>-0.63349999999999995</v>
+      </c>
+      <c r="E54" s="25">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="F54" s="25">
+        <v>-0.74280000000000002</v>
+      </c>
+      <c r="G54" s="25">
+        <v>0.37990000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="25">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="C55" s="25">
+        <v>0.42530000000000001</v>
+      </c>
+      <c r="D55" s="25">
+        <v>3.95E-2</v>
+      </c>
+      <c r="E55" s="25">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="F55" s="25">
+        <v>-0.81679999999999997</v>
+      </c>
+      <c r="G55" s="25">
+        <v>0.85040000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="27">
+        <v>-0.68940000000000001</v>
+      </c>
+      <c r="C56" s="27">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="D56" s="27">
+        <v>-2.3086000000000002</v>
+      </c>
+      <c r="E56" s="27">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F56" s="27">
+        <v>-1.2746999999999999</v>
+      </c>
+      <c r="G56" s="27">
+        <v>-0.1041</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="25">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C57" s="25">
+        <v>0.19439999999999999</v>
+      </c>
+      <c r="D57" s="25">
+        <v>0.1522</v>
+      </c>
+      <c r="E57" s="25">
+        <v>0.879</v>
+      </c>
+      <c r="F57" s="25">
+        <v>-0.35139999999999999</v>
+      </c>
+      <c r="G57" s="25">
+        <v>0.41060000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="25">
+        <v>-0.34420000000000001</v>
+      </c>
+      <c r="C58" s="25">
+        <v>0.3518</v>
+      </c>
+      <c r="D58" s="25">
+        <v>-0.97829999999999995</v>
+      </c>
+      <c r="E58" s="25">
+        <v>0.32790000000000002</v>
+      </c>
+      <c r="F58" s="25">
+        <v>-1.0338000000000001</v>
+      </c>
+      <c r="G58" s="25">
+        <v>0.34539999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="25">
+        <v>-1.5599999999999999E-2</v>
+      </c>
+      <c r="C59" s="25">
+        <v>0.3054</v>
+      </c>
+      <c r="D59" s="25">
+        <v>-5.11E-2</v>
+      </c>
+      <c r="E59" s="25">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="F59" s="25">
+        <v>-0.61409999999999998</v>
+      </c>
+      <c r="G59" s="25">
+        <v>0.58289999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="25">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C60" s="25">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D60" s="25">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="E60" s="25">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="F60" s="25">
+        <v>-0.57469999999999999</v>
+      </c>
+      <c r="G60" s="25">
+        <v>0.62080000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="25">
+        <v>-0.57489999999999997</v>
+      </c>
+      <c r="C61" s="25">
+        <v>0.41189999999999999</v>
+      </c>
+      <c r="D61" s="25">
+        <v>-1.3956</v>
+      </c>
+      <c r="E61" s="25">
+        <v>0.1628</v>
+      </c>
+      <c r="F61" s="25">
+        <v>-1.3823000000000001</v>
+      </c>
+      <c r="G61" s="25">
+        <v>0.23250000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16662A9-15CB-4422-A769-5D0C878F02C4}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.22489999999999999</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="F16" s="25">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="25">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="D17" s="25">
+        <v>7.8620000000000001</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="25">
+        <v>-0.20799999999999999</v>
+      </c>
+      <c r="C18" s="25">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D18" s="25">
+        <v>-2.2749999999999999</v>
+      </c>
+      <c r="E18" s="25">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F18" s="25">
+        <v>-0.38700000000000001</v>
+      </c>
+      <c r="G18" s="25">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="25">
+        <v>-0.12089999999999999</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="D19" s="25">
+        <v>-1.339</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F19" s="25">
+        <v>-0.29799999999999999</v>
+      </c>
+      <c r="G19" s="25">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="25">
+        <v>-0.27189999999999998</v>
+      </c>
+      <c r="C20" s="25">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D20" s="25">
+        <v>-3.0609999999999999</v>
+      </c>
+      <c r="E20" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="F20" s="25">
+        <v>-0.44600000000000001</v>
+      </c>
+      <c r="G20" s="25">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="25">
+        <v>-0.26579999999999998</v>
+      </c>
+      <c r="C21" s="25">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D21" s="25">
+        <v>-3.081</v>
+      </c>
+      <c r="E21" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="F21" s="25">
+        <v>-0.435</v>
+      </c>
+      <c r="G21" s="25">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="25">
+        <v>-6.1100000000000002E-2</v>
+      </c>
+      <c r="C22" s="25">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D22" s="25">
+        <v>-3.2440000000000002</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="F22" s="25">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="G22" s="25">
+        <v>-2.4E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0.31569999999999998</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D23" s="25">
+        <v>3.113</v>
+      </c>
+      <c r="E23" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="25">
+        <v>-0.74009999999999998</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D24" s="25">
+        <v>-2.431</v>
+      </c>
+      <c r="E24" s="25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F24" s="25">
+        <v>-1.337</v>
+      </c>
+      <c r="G24" s="25">
+        <v>-0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="25">
+        <v>-0.70179999999999998</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D25" s="25">
+        <v>-2.46</v>
+      </c>
+      <c r="E25" s="25">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F25" s="25">
+        <v>-1.2609999999999999</v>
+      </c>
+      <c r="G25" s="25">
+        <v>-0.14299999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3868F7-4C2A-47E8-8DD8-311273386117}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="65.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>166</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2">
+        <v>0.68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="22">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="H4" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+        <f>SUM(B6:C6)</f>
+        <v>128</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6">
+        <v>61</v>
+      </c>
+      <c r="J6">
+        <v>67</v>
+      </c>
+      <c r="K6">
+        <f>SUM(I6:J6)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>160</v>
+      </c>
+      <c r="D7">
+        <f>SUM(B7:C7)</f>
+        <v>182</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="I7">
+        <v>39</v>
+      </c>
+      <c r="J7">
         <v>143</v>
       </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" t="s">
-        <v>167</v>
+      <c r="K7">
+        <f>SUM(I7:J7)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:C8" si="0">SUM(B6:B7)</f>
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>236</v>
       </c>
       <c r="D8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="C9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9">
-        <v>9.6009999999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="24"/>
-      <c r="C10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10">
-        <v>-572.24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11">
-        <v>-633.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" t="s">
+        <f>SUM(D6:D7)</f>
+        <v>310</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8" si="1">SUM(I6:I7)</f>
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8" si="2">SUM(J6:J7)</f>
+        <v>210</v>
+      </c>
+      <c r="K8">
+        <f>SUM(K6:K7)</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="H11" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="38"/>
+      <c r="B12" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.41</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.51</v>
+      </c>
+      <c r="E13" s="23">
+        <v>128</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="I13">
+        <v>0.61</v>
+      </c>
+      <c r="J13">
+        <v>0.48</v>
+      </c>
+      <c r="K13">
+        <v>0.54</v>
+      </c>
+      <c r="L13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0.88</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.77</v>
+      </c>
+      <c r="E14" s="23">
         <v>182</v>
       </c>
-      <c r="C12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="17">
-        <v>7.6870000000000001E-24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="25">
-        <v>-0.2515</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="D15" s="25">
-        <v>-0.72799999999999998</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="F15" s="25">
-        <v>-0.92900000000000005</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0.42599999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="25">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="C16" s="25">
-        <v>1E-3</v>
-      </c>
-      <c r="D16" s="25">
-        <v>7.82</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G16" s="25">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="25">
-        <v>-0.2492</v>
-      </c>
-      <c r="C17" s="25">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D17" s="25">
-        <v>-2.9750000000000001</v>
-      </c>
-      <c r="E17" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F17" s="25">
-        <v>-0.41299999999999998</v>
-      </c>
-      <c r="G17" s="25">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="25">
-        <v>-0.27729999999999999</v>
-      </c>
-      <c r="C18" s="25">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="D18" s="25">
-        <v>-3.2469999999999999</v>
-      </c>
-      <c r="E18" s="25">
-        <v>1E-3</v>
-      </c>
-      <c r="F18" s="25">
-        <v>-0.44500000000000001</v>
-      </c>
-      <c r="G18" s="25">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="25">
-        <v>-0.25600000000000001</v>
-      </c>
-      <c r="C19" s="25">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D19" s="25">
-        <v>-2.976</v>
-      </c>
-      <c r="E19" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F19" s="25">
-        <v>-0.42499999999999999</v>
-      </c>
-      <c r="G19" s="25">
-        <v>-8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="25">
-        <v>-4.7300000000000002E-2</v>
-      </c>
-      <c r="C20" s="25">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D20" s="25">
-        <v>-2.5449999999999999</v>
-      </c>
-      <c r="E20" s="25">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F20" s="25">
-        <v>-8.4000000000000005E-2</v>
-      </c>
-      <c r="G20" s="25">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="25">
-        <v>0.3745</v>
-      </c>
-      <c r="C21" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="25">
-        <v>3.7450000000000001</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="G21" s="25">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
+      <c r="H14" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="I14">
+        <v>0.68</v>
+      </c>
+      <c r="J14">
+        <v>0.79</v>
+      </c>
+      <c r="K14">
+        <v>0.73</v>
+      </c>
+      <c r="L14">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="40"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="E16" s="23">
+        <v>310</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16">
+        <v>0.66</v>
+      </c>
+      <c r="L16">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="22">
+        <v>0.69</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.64</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.64</v>
+      </c>
+      <c r="E17" s="23">
+        <v>310</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17">
+        <v>0.65</v>
+      </c>
+      <c r="J17">
+        <v>0.63</v>
+      </c>
+      <c r="K17">
+        <v>0.63</v>
+      </c>
+      <c r="L17">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="22">
+        <v>0.69</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.66</v>
+      </c>
+      <c r="E18" s="23">
+        <v>310</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="I18">
+        <v>0.65</v>
+      </c>
+      <c r="J18">
+        <v>0.66</v>
+      </c>
+      <c r="K18">
+        <v>0.65</v>
+      </c>
+      <c r="L18">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H11:L11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5226,13 +7485,13 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{571F5220-80D8-4F20-8AD7-DC1A6F626947}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
     <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
